--- a/Biomedical/Research Methodology/Jan.xlsx
+++ b/Biomedical/Research Methodology/Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drkmenon/Sync/knotesquarto/Biomedical/Research Methodology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1044F78-EDE7-0E47-B1F6-D74B4C635623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDBFFA1-8220-E54E-8313-31C8D1221306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{9643EEAF-5EA3-1249-BD2C-57227C1F26F7}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
-  <si>
-    <t>Sales</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>xy</t>
   </si>
@@ -52,13 +49,22 @@
     <t>y</t>
   </si>
   <si>
-    <t>sales</t>
-  </si>
-  <si>
     <t>scott</t>
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
 </sst>
 </file>
@@ -413,34 +419,34 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -448,13 +454,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -462,13 +468,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -476,13 +482,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -490,13 +496,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -504,13 +510,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -518,13 +524,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -532,13 +538,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -546,13 +552,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -560,13 +566,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2</v>

--- a/Biomedical/Research Methodology/Jan.xlsx
+++ b/Biomedical/Research Methodology/Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drkmenon/Sync/knotesquarto/Biomedical/Research Methodology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDBFFA1-8220-E54E-8313-31C8D1221306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E6C472-ABF6-E840-A6A7-62530EEE49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{9643EEAF-5EA3-1249-BD2C-57227C1F26F7}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>scott</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Occupation</t>
+  </si>
+  <si>
+    <t>scut</t>
   </si>
 </sst>
 </file>
@@ -419,23 +419,23 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1</v>
